--- a/det_list_220401.xlsx
+++ b/det_list_220401.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\!doc\!v\py\xls\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\!doc\python\CBS\xls\Extracting_calculations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13AF5DC3-76F9-4281-8802-548CAF05677B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2707682C-5DF0-4E9D-8F75-1EEBE4E0F1BA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{F5C7C7FC-EC79-4212-832F-F3A57A2368BA}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{F5C7C7FC-EC79-4212-832F-F3A57A2368BA}"/>
   </bookViews>
   <sheets>
     <sheet name="arc_1" sheetId="1" r:id="rId1"/>
@@ -411,7 +411,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{358CA468-94EE-4D1F-B1FB-B5013B0976DA}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -498,31 +498,46 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="str">
-        <f t="shared" si="0"/>
-        <v>1500043430_5S5672043</v>
+        <f t="shared" ref="A6" si="1">B6&amp;"_"&amp;C6</f>
+        <v>617416_79057776513</v>
       </c>
       <c r="B6">
-        <v>1500043430</v>
-      </c>
-      <c r="C6" t="s">
-        <v>3</v>
+        <v>617416</v>
+      </c>
+      <c r="C6">
+        <v>79057776513</v>
       </c>
       <c r="D6">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="A7" si="2">B7&amp;"_"&amp;C7</f>
+        <v>1500043430_5S5672043</v>
+      </c>
+      <c r="B7">
+        <v>1500043430</v>
+      </c>
+      <c r="C7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" t="str">
+        <f t="shared" ref="A8" si="3">B8&amp;"_"&amp;C8</f>
         <v>2500045318_6-4651935</v>
       </c>
-      <c r="B7">
+      <c r="B8">
         <v>2500045318</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C8" t="s">
         <v>5</v>
       </c>
-      <c r="D7">
+      <c r="D8">
         <v>1</v>
       </c>
     </row>
